--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Kigoma_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Kigoma_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="460" windowWidth="15920" windowHeight="15460" tabRatio="500" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="15920" windowHeight="15460" tabRatio="500" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2920,12 +2915,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +2936,7 @@
         <v>542066.33930943708</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2949,7 +2944,7 @@
         <v>105926.84970564886</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2957,7 +2952,7 @@
         <v>124547.35705694939</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2965,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2973,7 +2968,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2981,13 +2976,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="B8" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2999,12 +2999,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3610,6 +3610,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3621,13 +3626,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3644,7 +3649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3663,7 +3668,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3682,7 +3687,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3701,7 +3706,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3720,7 +3725,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3739,7 +3744,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3758,7 +3763,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3777,7 +3782,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3796,113 +3801,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3914,9 +3924,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3930,7 +3940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3946,6 +3956,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3955,12 +3970,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3980,7 +3995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -4000,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4020,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -4040,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4062,6 +4077,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4073,9 +4093,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4095,7 +4115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4117,6 +4137,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4128,9 +4153,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4144,7 +4169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4160,6 +4185,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4171,12 +4201,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4196,7 +4226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4216,7 +4246,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4224,7 +4254,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4232,7 +4262,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4243,6 +4273,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4252,12 +4287,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4277,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4297,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4317,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4337,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4359,6 +4394,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4368,13 +4408,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4394,7 +4434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4416,6 +4456,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4425,12 +4470,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4447,7 +4492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4464,14 +4509,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4480,6 +4525,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4491,13 +4541,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4505,7 +4555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4513,7 +4563,7 @@
         <v>107973.764</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4521,7 +4571,7 @@
         <v>110020.66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4529,7 +4579,7 @@
         <v>112579.28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4537,7 +4587,7 @@
         <v>114626.17600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4545,7 +4595,7 @@
         <v>116673.072</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4553,7 +4603,7 @@
         <v>119231.692</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4561,7 +4611,7 @@
         <v>121790.31200000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4569,7 +4619,7 @@
         <v>123837.208</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4577,7 +4627,7 @@
         <v>126907.552</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4585,7 +4635,7 @@
         <v>129466.17200000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4593,7 +4643,7 @@
         <v>132024.79199999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4601,7 +4651,7 @@
         <v>134583.41200000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4609,7 +4659,7 @@
         <v>137653.75599999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4619,6 +4669,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4626,11 +4681,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4638,7 +4693,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4652,7 +4707,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4669,7 +4724,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4686,7 +4741,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4700,7 +4755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4717,7 +4772,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4734,12 +4789,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="38">
-        <v>0</v>
+      <c r="B7" s="33">
+        <v>1.7221742577342717E-2</v>
       </c>
       <c r="C7" s="37">
         <v>0.95</v>
@@ -4751,72 +4806,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4824,6 +4879,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4831,11 +4891,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4845,7 +4905,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4870,7 +4930,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4893,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4918,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4942,7 +5002,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4965,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4988,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5011,65 +5071,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -5077,6 +5137,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5088,12 +5153,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5113,7 +5178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5133,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5152,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5172,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5189,14 +5254,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5206,6 +5271,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5217,12 +5287,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5245,7 +5315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5268,7 +5338,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5288,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5311,7 +5381,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5335,6 +5405,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5346,12 +5421,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5374,7 +5449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5397,7 +5472,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5417,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5443,7 +5518,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5467,6 +5542,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5478,12 +5558,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5506,7 +5586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5529,7 +5609,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5549,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5575,7 +5655,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5599,6 +5679,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5610,9 +5695,9 @@
       <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5623,7 +5708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="30">
         <v>25</v>
       </c>
@@ -5638,6 +5723,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5649,12 +5739,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5674,7 +5764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5694,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5714,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5734,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5754,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5774,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5794,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5814,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5834,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5854,7 +5944,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5874,7 +5964,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5894,7 +5984,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5914,7 +6004,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5934,7 +6024,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5954,7 +6044,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5974,7 +6064,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5994,7 +6084,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6021,6 +6111,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6032,9 +6127,9 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -6057,7 +6152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6085,7 +6180,7 @@
         <v>20.237100442991462</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6110,7 +6205,7 @@
         <v>36.38723095235737</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6130,7 +6225,7 @@
         <v>26.387292536275098</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6150,7 +6245,7 @@
         <v>16.988376068376066</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6173,7 +6268,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6193,7 +6288,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6213,7 +6308,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6233,7 +6328,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6256,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6276,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6296,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6324,6 +6419,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6335,9 +6435,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6348,7 +6448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="31">
         <v>2.0272093023255815E-2</v>
       </c>
@@ -6361,6 +6461,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6372,9 +6477,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6394,7 +6499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6414,7 +6519,7 @@
         <v>3.5120720338983054</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6438,6 +6543,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6447,9 +6557,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6472,7 +6582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6495,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6515,7 +6625,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6535,7 +6645,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6555,7 +6665,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6578,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6598,7 +6708,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6618,7 +6728,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6638,7 +6748,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6661,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6681,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6701,7 +6811,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6721,7 +6831,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6744,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6764,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6784,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6804,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6827,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6847,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6867,7 +6977,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6889,6 +6999,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6898,9 +7013,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6923,7 +7038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6946,7 +7061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6966,7 +7081,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6986,7 +7101,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -7006,7 +7121,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -7029,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7049,7 +7164,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7069,7 +7184,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7089,7 +7204,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7112,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7132,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7152,7 +7267,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7172,7 +7287,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7195,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7215,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7235,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7255,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7278,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7298,7 +7413,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7318,7 +7433,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7340,5 +7455,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>